--- a/Work Code/ProxMoxServerSummary.xlsx
+++ b/Work Code/ProxMoxServerSummary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksuess\Documents\Obsidian\Work Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDFA1AD-2940-4DCA-9931-0AF8544E74FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA2FE28-437D-4362-9DE5-DE9C94CE093F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6088DFD5-61CE-4A44-893C-6157B47F8E58}"/>
+    <workbookView xWindow="-150" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{6088DFD5-61CE-4A44-893C-6157B47F8E58}"/>
   </bookViews>
   <sheets>
     <sheet name="vmlist" sheetId="1" r:id="rId1"/>
@@ -1616,24 +1616,24 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.5546875" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1647,7 +1647,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
         <v>394</v>
@@ -1793,7 +1793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>185</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>235</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>187</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>236</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>188</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>237</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>189</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>190</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>191</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>193</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>194</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>195</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>196</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>197</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>198</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>200</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>201</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>202</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>203</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>206</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>209</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>210</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>211</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>212</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>213</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>214</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>215</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>239</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>240</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>241</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>242</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>243</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>244</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>245</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>246</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>247</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>248</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>249</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>250</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>251</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>216</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>217</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>218</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>219</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>220</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>221</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>222</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>252</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>223</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>224</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>225</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>226</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>227</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>228</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>229</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>230</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>231</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>232</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>253</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>254</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>255</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>234</v>
       </c>
@@ -3784,6 +3784,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D5B1226A9E10549B47981B7E7E96355" ma:contentTypeVersion="32" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cab3b7c7685ea4d4bbeaf1c8c91066f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e14cde77-1231-4b0b-9ea0-fa7eb724ceec" xmlns:ns4="240d64f4-20f9-4c29-a85e-1a72f408519f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88801d5d29aa1bd5b9f1e09969a9a219" ns3:_="" ns4:_="">
     <xsd:import namespace="e14cde77-1231-4b0b-9ea0-fa7eb724ceec"/>
@@ -4186,15 +4195,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4249,6 +4249,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C9EABE-7591-49B8-87FB-3D0E76D19C7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA19133-91E8-403B-8F60-4C2E51B1CAEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4263,14 +4271,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C9EABE-7591-49B8-87FB-3D0E76D19C7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Work Code/ProxMoxServerSummary.xlsx
+++ b/Work Code/ProxMoxServerSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksuess\Documents\Obsidian\Work Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA2FE28-437D-4362-9DE5-DE9C94CE093F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A806091-5E3F-4157-9387-EB1B0357B755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-150" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{6088DFD5-61CE-4A44-893C-6157B47F8E58}"/>
   </bookViews>
@@ -1615,25 +1615,25 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I81" sqref="I81"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="48.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="22.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.5703125" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1647,7 +1647,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>328</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>182</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>183</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>185</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>235</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>187</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>236</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>188</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>237</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>189</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>190</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>191</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>193</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>194</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>195</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>196</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>197</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>198</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>199</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>200</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>201</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>202</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>203</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>204</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>205</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>206</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>207</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>209</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>210</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>211</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>212</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>213</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>214</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>215</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>239</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>240</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>241</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>242</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>243</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>244</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>245</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>246</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>247</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>248</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>249</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>250</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>251</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>216</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>217</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>218</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>219</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>220</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>221</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>222</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>252</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>223</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>224</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>225</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>226</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>227</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>228</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>229</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>230</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>231</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>232</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>253</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>254</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>255</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>234</v>
       </c>
@@ -3784,15 +3784,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D5B1226A9E10549B47981B7E7E96355" ma:contentTypeVersion="32" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cab3b7c7685ea4d4bbeaf1c8c91066f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e14cde77-1231-4b0b-9ea0-fa7eb724ceec" xmlns:ns4="240d64f4-20f9-4c29-a85e-1a72f408519f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88801d5d29aa1bd5b9f1e09969a9a219" ns3:_="" ns4:_="">
     <xsd:import namespace="e14cde77-1231-4b0b-9ea0-fa7eb724ceec"/>
@@ -4195,6 +4186,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4249,14 +4249,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C9EABE-7591-49B8-87FB-3D0E76D19C7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA19133-91E8-403B-8F60-4C2E51B1CAEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4271,6 +4263,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C9EABE-7591-49B8-87FB-3D0E76D19C7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Work Code/ProxMoxServerSummary.xlsx
+++ b/Work Code/ProxMoxServerSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksuess\Documents\Obsidian\Work Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A806091-5E3F-4157-9387-EB1B0357B755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444E055B-B346-40D2-B1D5-152D5509823A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-150" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{6088DFD5-61CE-4A44-893C-6157B47F8E58}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="402">
   <si>
     <t>Server Name</t>
   </si>
@@ -212,18 +212,12 @@
     <t>vpn.cci.systems</t>
   </si>
   <si>
-    <t>10050, 443, 53, 80, 22 | 33471, 27017, 2302</t>
-  </si>
-  <si>
     <t>OpenVPN, Pritunl, mongod</t>
   </si>
   <si>
     <t>10.0.120.150</t>
   </si>
   <si>
-    <t>10050, 9000, 8000, 53, 80, 22 | 45527</t>
-  </si>
-  <si>
     <t>Organizr (Stored as a container)</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
     <t>10.0.120.162</t>
   </si>
   <si>
-    <t>10050, 9000, 8000, 80, 53, 22 | 42683</t>
-  </si>
-  <si>
     <t>VaultWarden</t>
   </si>
   <si>
@@ -245,9 +236,6 @@
     <t>10.0.120.19</t>
   </si>
   <si>
-    <t>10050, 9000, 8000, 53, 22 | 44801</t>
-  </si>
-  <si>
     <t>Ubuntu 20.04 LTS</t>
   </si>
   <si>
@@ -257,9 +245,6 @@
     <t>10.0.120.161</t>
   </si>
   <si>
-    <t>9090, 9001, 3306, 80, 53, 22 | 36314, 39685</t>
-  </si>
-  <si>
     <t>10.0.120.164</t>
   </si>
   <si>
@@ -323,33 +308,18 @@
     <t>Guacamole</t>
   </si>
   <si>
-    <t>10055, 9090, 9001, 53, 22 | 33865, 36725</t>
-  </si>
-  <si>
-    <t>10055, 9001, 80, 53, 22 | 43613</t>
-  </si>
-  <si>
     <t>Remotely (docker container)</t>
   </si>
   <si>
-    <t>10055, 9090, 9001, 8022, 80, 53, 22 | 45839</t>
-  </si>
-  <si>
     <t>git.cci.systems</t>
   </si>
   <si>
     <t>CCI Git (gitea, mysqld, mariadb)</t>
   </si>
   <si>
-    <t>10055, 9090, 9001, 8080, 80, 53, 22 | 37637, 5432</t>
-  </si>
-  <si>
     <t>uptime.cci.systems</t>
   </si>
   <si>
-    <t>10055, 9090, 9001, 80, 53, 22 |40481</t>
-  </si>
-  <si>
     <t>Debian 11</t>
   </si>
   <si>
@@ -416,9 +386,6 @@
     <t>Postal- runner, rabbitmq, and maria db container</t>
   </si>
   <si>
-    <t>10055, 10000, 9235, 9090, 9001, 4433, 4430, 4222, 1024, 443, 80, 53, 22</t>
-  </si>
-  <si>
     <t>Tactical host, mongod, nginx, redis-server</t>
   </si>
   <si>
@@ -467,9 +434,6 @@
     <t>10055, 9443, 9090, 9000, 8800, 3333, 443, 80, 53, 22</t>
   </si>
   <si>
-    <t>24679, 24678, 10055, 9090, 9001, 5440, 3001, 3000, 53, 22</t>
-  </si>
-  <si>
     <t>IP/Internal FQDN</t>
   </si>
   <si>
@@ -485,9 +449,6 @@
     <t>10055, 9443, 9090, 9001, 9000, 8090, 8000, 5432, 53, 22</t>
   </si>
   <si>
-    <t>Guacamole, java, gnomeshell,</t>
-  </si>
-  <si>
     <t>9090, 9001, 9000, 8000, 7880, 3000, 443, 81, 80, 22</t>
   </si>
   <si>
@@ -1221,6 +1182,66 @@
   </si>
   <si>
     <t>postgres:latest, adminer</t>
+  </si>
+  <si>
+    <t>10055, 9090, 9001, 5440, 3001, 3000, 53, 22</t>
+  </si>
+  <si>
+    <t>27017, 10050, 443, 53, 80, 22</t>
+  </si>
+  <si>
+    <t>10050, 9000, 8000, 53, 80, 22</t>
+  </si>
+  <si>
+    <t>10050, 9000, 8000, 80, 53, 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10050, 9000, 8000, 53, 22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9090, 9001, 3306, 80, 53, 22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10055, 9090, 9001, 53, 22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10055, 9001, 80, 53, 22 </t>
+  </si>
+  <si>
+    <t>10055, 9090, 9001, 8022, 80, 53, 22</t>
+  </si>
+  <si>
+    <t>10055, 9090, 9001, 8080, 5432,  80, 53, 22</t>
+  </si>
+  <si>
+    <t>10055, 10000, 9235, 9090, 9001, 1024, 443, 80, 53, 22</t>
+  </si>
+  <si>
+    <t>Guacamole, java, gnomeshell</t>
+  </si>
+  <si>
+    <t>goaccess, nginx</t>
+  </si>
+  <si>
+    <t>postgres:12-alpine, redis:alpine, goauthentik/server:latest, goauthentik/ldap:latest, goauthentik/server:2023.6.1, goauthentik/radius:latest</t>
+  </si>
+  <si>
+    <t>apprise:latest</t>
+  </si>
+  <si>
+    <t>uptime-kuma:1</t>
+  </si>
+  <si>
+    <t>redis, postgres, opentogethertube:latest, cv4pve-toolbox:21.01.2</t>
+  </si>
+  <si>
+    <t>mariadb:10, gitea:latest</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>remotely:latest</t>
   </si>
 </sst>
 </file>
@@ -1615,8 +1636,8 @@
   <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,7 +1670,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1661,7 +1682,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1676,7 +1697,7 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="K2" t="s">
         <v>20</v>
@@ -1687,25 +1708,25 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -1722,13 +1743,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
         <v>15</v>
@@ -1737,10 +1758,10 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -1748,6 +1769,9 @@
       <c r="I4" t="s">
         <v>8</v>
       </c>
+      <c r="J4" t="s">
+        <v>394</v>
+      </c>
       <c r="K4" t="s">
         <v>8</v>
       </c>
@@ -1757,13 +1781,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>393</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -1772,10 +1796,10 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="G5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -1784,7 +1808,7 @@
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="K5" t="s">
         <v>8</v>
@@ -1795,10 +1819,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1810,10 +1834,10 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -1830,13 +1854,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1845,10 +1869,10 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -1865,13 +1889,13 @@
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F8" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="L8" t="s">
         <v>7</v>
@@ -1879,22 +1903,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" t="s">
         <v>155</v>
       </c>
-      <c r="D9" t="s">
-        <v>168</v>
-      </c>
       <c r="E9" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="L9" t="s">
         <v>8</v>
@@ -1902,22 +1926,22 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F10" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="L10" t="s">
         <v>8</v>
@@ -1925,19 +1949,19 @@
     </row>
     <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="L11" t="s">
         <v>7</v>
@@ -1945,22 +1969,22 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s">
         <v>8</v>
@@ -1968,13 +1992,13 @@
     </row>
     <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="F13" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="L13" t="s">
         <v>7</v>
@@ -1982,22 +2006,22 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
         <v>8</v>
@@ -2005,22 +2029,22 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
         <v>8</v>
@@ -2028,22 +2052,22 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
         <v>8</v>
@@ -2051,22 +2075,22 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s">
         <v>8</v>
@@ -2074,22 +2098,22 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E18" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s">
         <v>8</v>
@@ -2097,10 +2121,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -2112,10 +2136,10 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>382</v>
       </c>
       <c r="H19" t="s">
         <v>6</v>
@@ -2123,6 +2147,9 @@
       <c r="I19" t="s">
         <v>8</v>
       </c>
+      <c r="J19" t="s">
+        <v>400</v>
+      </c>
       <c r="K19" t="s">
         <v>8</v>
       </c>
@@ -2132,10 +2159,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
@@ -2147,10 +2174,10 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="G20" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="H20" t="s">
         <v>6</v>
@@ -2167,10 +2194,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -2182,10 +2209,10 @@
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="G21" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H21" t="s">
         <v>6</v>
@@ -2202,13 +2229,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -2217,10 +2244,10 @@
         <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H22" t="s">
         <v>6</v>
@@ -2237,16 +2264,16 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="L23" t="s">
         <v>8</v>
@@ -2254,10 +2281,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B24" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
@@ -2269,7 +2296,7 @@
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
@@ -2289,10 +2316,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
@@ -2304,7 +2331,7 @@
         <v>35</v>
       </c>
       <c r="F25" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="G25" t="s">
         <v>31</v>
@@ -2324,10 +2351,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -2339,7 +2366,7 @@
         <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -2359,10 +2386,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
@@ -2374,7 +2401,7 @@
         <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="G27" t="s">
         <v>39</v>
@@ -2394,10 +2421,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
@@ -2409,7 +2436,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="G28" t="s">
         <v>39</v>
@@ -2429,10 +2456,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B29" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
@@ -2444,7 +2471,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="G29" t="s">
         <v>44</v>
@@ -2464,10 +2491,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C30" t="s">
         <v>49</v>
@@ -2479,7 +2506,7 @@
         <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="G30" t="s">
         <v>48</v>
@@ -2499,10 +2526,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B31" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C31" t="s">
         <v>49</v>
@@ -2514,7 +2541,7 @@
         <v>50</v>
       </c>
       <c r="F31" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="G31" t="s">
         <v>48</v>
@@ -2534,10 +2561,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C32" t="s">
         <v>49</v>
@@ -2549,7 +2576,7 @@
         <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="G32" t="s">
         <v>48</v>
@@ -2569,10 +2596,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C33" t="s">
         <v>49</v>
@@ -2584,7 +2611,7 @@
         <v>52</v>
       </c>
       <c r="F33" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="G33" t="s">
         <v>48</v>
@@ -2604,10 +2631,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
@@ -2619,7 +2646,7 @@
         <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="G34" t="s">
         <v>48</v>
@@ -2639,10 +2666,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B35" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C35" t="s">
         <v>49</v>
@@ -2654,7 +2681,7 @@
         <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="G35" t="s">
         <v>48</v>
@@ -2674,13 +2701,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B36" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
         <v>56</v>
@@ -2689,10 +2716,10 @@
         <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G36" t="s">
-        <v>58</v>
+        <v>383</v>
       </c>
       <c r="H36" t="s">
         <v>57</v>
@@ -2709,25 +2736,25 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="G37" t="s">
-        <v>61</v>
+        <v>384</v>
       </c>
       <c r="H37" t="s">
         <v>6</v>
@@ -2744,28 +2771,28 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
         <v>56</v>
       </c>
       <c r="E38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" t="s">
+        <v>356</v>
+      </c>
+      <c r="G38" t="s">
+        <v>385</v>
+      </c>
+      <c r="H38" t="s">
         <v>64</v>
-      </c>
-      <c r="F38" t="s">
-        <v>369</v>
-      </c>
-      <c r="G38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H38" t="s">
-        <v>67</v>
       </c>
       <c r="I38" t="s">
         <v>8</v>
@@ -2779,25 +2806,25 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F39" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>386</v>
       </c>
       <c r="H39" t="s">
         <v>6</v>
@@ -2814,13 +2841,13 @@
     </row>
     <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B40" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F40" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="L40" t="s">
         <v>7</v>
@@ -2828,28 +2855,28 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="G41" t="s">
-        <v>73</v>
+        <v>387</v>
       </c>
       <c r="H41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s">
         <v>8</v>
@@ -2863,13 +2890,13 @@
     </row>
     <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B42" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F42" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="L42" t="s">
         <v>7</v>
@@ -2877,13 +2904,13 @@
     </row>
     <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B43" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="F43" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="L43" t="s">
         <v>7</v>
@@ -2891,13 +2918,13 @@
     </row>
     <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B44" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="F44" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="L44" t="s">
         <v>7</v>
@@ -2905,13 +2932,13 @@
     </row>
     <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B45" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F45" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="L45" t="s">
         <v>7</v>
@@ -2919,13 +2946,13 @@
     </row>
     <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B46" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="F46" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="L46" t="s">
         <v>7</v>
@@ -2933,13 +2960,13 @@
     </row>
     <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="B47" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F47" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s">
         <v>7</v>
@@ -2947,13 +2974,13 @@
     </row>
     <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B48" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F48" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s">
         <v>7</v>
@@ -2961,13 +2988,13 @@
     </row>
     <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B49" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="F49" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="L49" t="s">
         <v>7</v>
@@ -2975,13 +3002,13 @@
     </row>
     <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B50" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="F50" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="L50" t="s">
         <v>7</v>
@@ -2989,13 +3016,13 @@
     </row>
     <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B51" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="F51" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="L51" t="s">
         <v>7</v>
@@ -3003,13 +3030,13 @@
     </row>
     <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B52" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F52" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="L52" t="s">
         <v>7</v>
@@ -3017,13 +3044,13 @@
     </row>
     <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B53" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F53" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="L53" t="s">
         <v>7</v>
@@ -3031,13 +3058,13 @@
     </row>
     <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B54" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="F54" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="L54" t="s">
         <v>7</v>
@@ -3045,25 +3072,25 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B55" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
         <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F55" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="G55" t="s">
-        <v>95</v>
+        <v>388</v>
       </c>
       <c r="H55" t="s">
         <v>12</v>
@@ -3080,25 +3107,25 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F56" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="G56" t="s">
-        <v>96</v>
+        <v>389</v>
       </c>
       <c r="H56" t="s">
         <v>6</v>
@@ -3106,6 +3133,9 @@
       <c r="I56" t="s">
         <v>8</v>
       </c>
+      <c r="J56" t="s">
+        <v>401</v>
+      </c>
       <c r="K56" t="s">
         <v>7</v>
       </c>
@@ -3115,31 +3145,34 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B57" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="G57" t="s">
-        <v>98</v>
+        <v>390</v>
       </c>
       <c r="H57" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I57" t="s">
         <v>8</v>
+      </c>
+      <c r="J57" t="s">
+        <v>399</v>
       </c>
       <c r="K57" t="s">
         <v>8</v>
@@ -3150,25 +3183,25 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B58" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F58" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="G58" t="s">
-        <v>101</v>
+        <v>391</v>
       </c>
       <c r="H58" t="s">
         <v>6</v>
@@ -3176,6 +3209,9 @@
       <c r="I58" t="s">
         <v>8</v>
       </c>
+      <c r="J58" t="s">
+        <v>398</v>
+      </c>
       <c r="K58" t="s">
         <v>8</v>
       </c>
@@ -3185,31 +3221,34 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B59" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F59" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="G59" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="H59" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I59" t="s">
         <v>8</v>
+      </c>
+      <c r="J59" t="s">
+        <v>397</v>
       </c>
       <c r="K59" t="s">
         <v>8</v>
@@ -3220,16 +3259,16 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B60" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="E60" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="L60" t="s">
         <v>8</v>
@@ -3237,25 +3276,25 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="B61" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C61" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D61" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E61" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="G61" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H61" t="s">
         <v>6</v>
@@ -3272,13 +3311,13 @@
     </row>
     <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B62" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="F62" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="L62" t="s">
         <v>7</v>
@@ -3286,25 +3325,25 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="B63" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C63" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D63" t="s">
         <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F63" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="G63" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H63" t="s">
         <v>6</v>
@@ -3321,25 +3360,25 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B64" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E64" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="G64" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H64" t="s">
         <v>6</v>
@@ -3356,25 +3395,25 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B65" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D65" t="s">
         <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F65" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="G65" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H65" t="s">
         <v>6</v>
@@ -3382,6 +3421,9 @@
       <c r="I65" t="s">
         <v>8</v>
       </c>
+      <c r="J65" t="s">
+        <v>396</v>
+      </c>
       <c r="K65" t="s">
         <v>8</v>
       </c>
@@ -3391,28 +3433,28 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="B66" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C66" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D66" t="s">
         <v>28</v>
       </c>
       <c r="E66" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F66" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="G66" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H66" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I66" t="s">
         <v>8</v>
@@ -3426,13 +3468,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B67" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
@@ -3441,10 +3483,10 @@
         <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="G67" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H67" t="s">
         <v>6</v>
@@ -3452,6 +3494,9 @@
       <c r="I67" t="s">
         <v>8</v>
       </c>
+      <c r="J67" t="s">
+        <v>395</v>
+      </c>
       <c r="K67" t="s">
         <v>8</v>
       </c>
@@ -3461,25 +3506,25 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B68" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D68" t="s">
         <v>28</v>
       </c>
       <c r="E68" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F68" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="G68" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H68" t="s">
         <v>6</v>
@@ -3496,25 +3541,25 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B69" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C69" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F69" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G69" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H69" t="s">
         <v>6</v>
@@ -3531,25 +3576,25 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B70" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C70" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D70" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E70" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F70" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="G70" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H70" t="s">
         <v>6</v>
@@ -3566,28 +3611,28 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B71" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="C71" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F71" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="G71" t="s">
-        <v>126</v>
+        <v>392</v>
       </c>
       <c r="H71" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="I71" t="s">
         <v>8</v>
@@ -3601,25 +3646,25 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D72" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E72" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F72" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="G72" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H72" t="s">
         <v>6</v>
@@ -3636,25 +3681,25 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B73" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
         <v>28</v>
       </c>
       <c r="E73" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F73" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="G73" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H73" t="s">
         <v>6</v>
@@ -3671,22 +3716,22 @@
     </row>
     <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B74" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C74" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D74" t="s">
         <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F74" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="L74" t="s">
         <v>7</v>
@@ -3694,19 +3739,19 @@
     </row>
     <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B75" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C75" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E75" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F75" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="L75" t="s">
         <v>7</v>
@@ -3714,22 +3759,22 @@
     </row>
     <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B76" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C76" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D76" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E76" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F76" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="L76" t="s">
         <v>7</v>
@@ -3737,25 +3782,25 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B77" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C77" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D77" t="s">
         <v>33</v>
       </c>
       <c r="E77" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F77" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="G77" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H77" t="s">
         <v>6</v>
@@ -3784,6 +3829,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D5B1226A9E10549B47981B7E7E96355" ma:contentTypeVersion="32" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cab3b7c7685ea4d4bbeaf1c8c91066f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e14cde77-1231-4b0b-9ea0-fa7eb724ceec" xmlns:ns4="240d64f4-20f9-4c29-a85e-1a72f408519f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88801d5d29aa1bd5b9f1e09969a9a219" ns3:_="" ns4:_="">
     <xsd:import namespace="e14cde77-1231-4b0b-9ea0-fa7eb724ceec"/>
@@ -4186,15 +4240,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4249,6 +4294,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C9EABE-7591-49B8-87FB-3D0E76D19C7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA19133-91E8-403B-8F60-4C2E51B1CAEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4263,14 +4316,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C9EABE-7591-49B8-87FB-3D0E76D19C7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Work Code/ProxMoxServerSummary.xlsx
+++ b/Work Code/ProxMoxServerSummary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksuess\Documents\Obsidian\Work Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444E055B-B346-40D2-B1D5-152D5509823A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6958B79-B0A3-4DAD-B9A2-36B59336FFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{6088DFD5-61CE-4A44-893C-6157B47F8E58}"/>
+    <workbookView xWindow="-150" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6088DFD5-61CE-4A44-893C-6157B47F8E58}"/>
   </bookViews>
   <sheets>
     <sheet name="vmlist" sheetId="1" r:id="rId1"/>
+    <sheet name="Docker" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="423">
   <si>
     <t>Server Name</t>
   </si>
@@ -1241,7 +1242,70 @@
     <t>postgres</t>
   </si>
   <si>
-    <t>remotely:latest</t>
+    <t>Can't connect to host</t>
+  </si>
+  <si>
+    <t>Password doesn't work</t>
+  </si>
+  <si>
+    <t>guacamole/guacd, mysql-server:latest,</t>
+  </si>
+  <si>
+    <t>organizr:latest</t>
+  </si>
+  <si>
+    <t>vaultwarden:latest</t>
+  </si>
+  <si>
+    <t>ixsystems/truecommand</t>
+  </si>
+  <si>
+    <t>translucency/remotely:latest</t>
+  </si>
+  <si>
+    <t>adguardhome:latest</t>
+  </si>
+  <si>
+    <t>mariadb, rabbitmq:3.8, caddy</t>
+  </si>
+  <si>
+    <t>linuxserver/duplcati:latest</t>
+  </si>
+  <si>
+    <t>telegraf:1.4.0, influxdb:1.5.0, mariadb:1.0.7, redis:7.04-alpine, appwrite:1.3.8 (x15), nginx</t>
+  </si>
+  <si>
+    <t>adguardhome-sync</t>
+  </si>
+  <si>
+    <t>minio:lastest</t>
+  </si>
+  <si>
+    <t>portainer_agent</t>
+  </si>
+  <si>
+    <t>portainerce, portainer_agent</t>
+  </si>
+  <si>
+    <t>admin.downloads.cci.systems</t>
+  </si>
+  <si>
+    <t>api.mycci.app</t>
+  </si>
+  <si>
+    <t>auth.cci.systems, idm.commercecontrols.com</t>
+  </si>
+  <si>
+    <t>lansweeper.commercecontrols.io</t>
+  </si>
+  <si>
+    <t>print.cci.systems</t>
+  </si>
+  <si>
+    <t>proxy.cci.systems</t>
+  </si>
+  <si>
+    <t>snipe.cci.systems</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1356,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1318,9 +1385,12 @@
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L77">
+    <sortCondition ref="A3:A77" customList="Smallest to Largest"/>
+  </sortState>
   <tableColumns count="12">
     <tableColumn id="13" xr3:uid="{2B9333EE-9FC9-4E0B-BE74-E7F67FDADA5D}" name="VM ID"/>
-    <tableColumn id="12" xr3:uid="{1FF0967D-29A4-47CC-85D1-5C4675BA0858}" name="Server Name" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{1FF0967D-29A4-47CC-85D1-5C4675BA0858}" name="Server Name" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{0C9D84F5-7B31-4E77-9A9C-A27C3DBE7E74}" name="Server Description"/>
     <tableColumn id="3" xr3:uid="{AA7FA077-0E6E-4EEB-9C2E-57D9562ADD78}" name="Operating System"/>
     <tableColumn id="4" xr3:uid="{B9585199-7108-443C-99DD-0278211363BB}" name="IP/Internal FQDN"/>
@@ -1331,6 +1401,30 @@
     <tableColumn id="11" xr3:uid="{ECDD9CE1-5826-408B-852E-799738631187}" name="Container Image Name"/>
     <tableColumn id="9" xr3:uid="{E4049C76-A04F-4850-BE8C-1BC8CB917041}" name="Cockpit/Webmin (Y/N)"/>
     <tableColumn id="10" xr3:uid="{2906DD4E-9722-4D08-AA2B-027F771D71FE}" name="Online (Y/N)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3C73B15-B953-46CC-BDB5-A9B848BAA55F}" name="Table32" displayName="Table32" ref="A2:L33" totalsRowShown="0">
+  <autoFilter ref="A2:L33" xr:uid="{0B3A3CCF-7692-4B0B-8C1B-5209B2612646}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L33">
+    <sortCondition ref="I2:I33"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="13" xr3:uid="{7C5CA353-FC42-4547-817D-31CE3C784D4B}" name="VM ID"/>
+    <tableColumn id="12" xr3:uid="{97C6A8F0-6055-4649-81A7-F957CED38EBC}" name="Server Name" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{47FEE56C-2E20-4724-BF15-54A99C0AD1C8}" name="Server Description"/>
+    <tableColumn id="3" xr3:uid="{430D292A-0101-4776-95C4-8DF722A973A8}" name="Operating System"/>
+    <tableColumn id="4" xr3:uid="{890807B8-5A8A-4EC7-BC2E-9134DBAF9635}" name="IP/Internal FQDN"/>
+    <tableColumn id="5" xr3:uid="{923FD4DB-FAEE-475B-AFD4-12278B910E7B}" name="Internal FQDN"/>
+    <tableColumn id="6" xr3:uid="{363B4194-876C-4BFE-8068-EEE04E7B6205}" name="Listening Ports"/>
+    <tableColumn id="7" xr3:uid="{61F32E3D-B6EA-4BDA-B0C3-BFC3A6750D65}" name="External FQDN"/>
+    <tableColumn id="8" xr3:uid="{5AA32C09-16B3-4884-8F65-7800911ACFA3}" name="Portainer/Docker (Y/N)"/>
+    <tableColumn id="11" xr3:uid="{73FD4052-2BDF-4CE2-BC02-DC08A5B3BCA6}" name="Container Image Name"/>
+    <tableColumn id="9" xr3:uid="{1DFBC050-4399-445C-A9D7-59D692D791C3}" name="Cockpit/Webmin (Y/N)"/>
+    <tableColumn id="10" xr3:uid="{2026B2FD-D5A5-4FCB-AA64-70428FE94257}" name="Online (Y/N)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1635,9 +1729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48114555-E705-4CA9-AB90-5789873DD483}">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J57" sqref="J57"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,7 +1858,7 @@
         <v>137</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>421</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -1880,6 +1974,9 @@
       <c r="I7" t="s">
         <v>8</v>
       </c>
+      <c r="J7" t="s">
+        <v>410</v>
+      </c>
       <c r="K7" t="s">
         <v>7</v>
       </c>
@@ -1920,6 +2017,21 @@
       <c r="F9" t="s">
         <v>166</v>
       </c>
+      <c r="G9">
+        <v>9524</v>
+      </c>
+      <c r="H9" t="s">
+        <v>419</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
       <c r="L9" t="s">
         <v>8</v>
       </c>
@@ -1943,6 +2055,15 @@
       <c r="F10" t="s">
         <v>167</v>
       </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
       <c r="L10" t="s">
         <v>8</v>
       </c>
@@ -1963,6 +2084,9 @@
       <c r="F11" t="s">
         <v>320</v>
       </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
       <c r="L11" t="s">
         <v>7</v>
       </c>
@@ -1986,6 +2110,21 @@
       <c r="F12" t="s">
         <v>148</v>
       </c>
+      <c r="G12">
+        <v>9191</v>
+      </c>
+      <c r="H12" t="s">
+        <v>420</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
       <c r="L12" t="s">
         <v>8</v>
       </c>
@@ -2000,6 +2139,9 @@
       <c r="F13" t="s">
         <v>321</v>
       </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
       <c r="L13" t="s">
         <v>7</v>
       </c>
@@ -2023,6 +2165,15 @@
       <c r="F14" t="s">
         <v>149</v>
       </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
       <c r="L14" t="s">
         <v>8</v>
       </c>
@@ -2046,6 +2197,15 @@
       <c r="F15" t="s">
         <v>150</v>
       </c>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
       <c r="L15" t="s">
         <v>8</v>
       </c>
@@ -2069,6 +2229,15 @@
       <c r="F16" t="s">
         <v>151</v>
       </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
       <c r="L16" t="s">
         <v>8</v>
       </c>
@@ -2092,6 +2261,15 @@
       <c r="F17" t="s">
         <v>152</v>
       </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>7</v>
+      </c>
       <c r="L17" t="s">
         <v>8</v>
       </c>
@@ -2115,6 +2293,15 @@
       <c r="F18" t="s">
         <v>153</v>
       </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
       <c r="L18" t="s">
         <v>8</v>
       </c>
@@ -2180,10 +2367,13 @@
         <v>131</v>
       </c>
       <c r="H20" t="s">
-        <v>6</v>
+        <v>417</v>
       </c>
       <c r="I20" t="s">
         <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>411</v>
       </c>
       <c r="K20" t="s">
         <v>8</v>
@@ -2215,10 +2405,13 @@
         <v>130</v>
       </c>
       <c r="H21" t="s">
-        <v>6</v>
+        <v>416</v>
       </c>
       <c r="I21" t="s">
         <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>413</v>
       </c>
       <c r="K21" t="s">
         <v>7</v>
@@ -2255,6 +2448,9 @@
       <c r="I22" t="s">
         <v>8</v>
       </c>
+      <c r="J22" t="s">
+        <v>401</v>
+      </c>
       <c r="K22" t="s">
         <v>8</v>
       </c>
@@ -2269,6 +2465,9 @@
       <c r="B23" t="s">
         <v>263</v>
       </c>
+      <c r="C23" t="s">
+        <v>402</v>
+      </c>
       <c r="E23" t="s">
         <v>30</v>
       </c>
@@ -2307,6 +2506,9 @@
       <c r="I24" t="s">
         <v>8</v>
       </c>
+      <c r="J24" t="s">
+        <v>414</v>
+      </c>
       <c r="K24" t="s">
         <v>8</v>
       </c>
@@ -2342,6 +2544,9 @@
       <c r="I25" t="s">
         <v>8</v>
       </c>
+      <c r="J25" t="s">
+        <v>414</v>
+      </c>
       <c r="K25" t="s">
         <v>8</v>
       </c>
@@ -2377,6 +2582,9 @@
       <c r="I26" t="s">
         <v>8</v>
       </c>
+      <c r="J26" t="s">
+        <v>414</v>
+      </c>
       <c r="K26" t="s">
         <v>8</v>
       </c>
@@ -2412,6 +2620,9 @@
       <c r="I27" t="s">
         <v>8</v>
       </c>
+      <c r="J27" t="s">
+        <v>412</v>
+      </c>
       <c r="K27" t="s">
         <v>8</v>
       </c>
@@ -2447,6 +2658,9 @@
       <c r="I28" t="s">
         <v>8</v>
       </c>
+      <c r="J28" t="s">
+        <v>414</v>
+      </c>
       <c r="K28" t="s">
         <v>8</v>
       </c>
@@ -2482,6 +2696,9 @@
       <c r="I29" t="s">
         <v>8</v>
       </c>
+      <c r="J29" t="s">
+        <v>414</v>
+      </c>
       <c r="K29" t="s">
         <v>8</v>
       </c>
@@ -2517,6 +2734,9 @@
       <c r="I30" t="s">
         <v>7</v>
       </c>
+      <c r="J30" t="s">
+        <v>414</v>
+      </c>
       <c r="K30" t="s">
         <v>7</v>
       </c>
@@ -2552,6 +2772,9 @@
       <c r="I31" t="s">
         <v>7</v>
       </c>
+      <c r="J31" t="s">
+        <v>414</v>
+      </c>
       <c r="K31" t="s">
         <v>7</v>
       </c>
@@ -2587,6 +2810,9 @@
       <c r="I32" t="s">
         <v>7</v>
       </c>
+      <c r="J32" t="s">
+        <v>414</v>
+      </c>
       <c r="K32" t="s">
         <v>7</v>
       </c>
@@ -2622,6 +2848,9 @@
       <c r="I33" t="s">
         <v>7</v>
       </c>
+      <c r="J33" t="s">
+        <v>414</v>
+      </c>
       <c r="K33" t="s">
         <v>7</v>
       </c>
@@ -2657,6 +2886,9 @@
       <c r="I34" t="s">
         <v>7</v>
       </c>
+      <c r="J34" t="s">
+        <v>414</v>
+      </c>
       <c r="K34" t="s">
         <v>7</v>
       </c>
@@ -2692,6 +2924,9 @@
       <c r="I35" t="s">
         <v>7</v>
       </c>
+      <c r="J35" t="s">
+        <v>414</v>
+      </c>
       <c r="K35" t="s">
         <v>7</v>
       </c>
@@ -2727,6 +2962,9 @@
       <c r="I36" t="s">
         <v>7</v>
       </c>
+      <c r="J36" t="s">
+        <v>414</v>
+      </c>
       <c r="K36" t="s">
         <v>7</v>
       </c>
@@ -2762,6 +3000,9 @@
       <c r="I37" t="s">
         <v>8</v>
       </c>
+      <c r="J37" t="s">
+        <v>404</v>
+      </c>
       <c r="K37" t="s">
         <v>7</v>
       </c>
@@ -2797,6 +3038,9 @@
       <c r="I38" t="s">
         <v>8</v>
       </c>
+      <c r="J38" t="s">
+        <v>405</v>
+      </c>
       <c r="K38" t="s">
         <v>7</v>
       </c>
@@ -2832,6 +3076,9 @@
       <c r="I39" t="s">
         <v>8</v>
       </c>
+      <c r="J39" t="s">
+        <v>406</v>
+      </c>
       <c r="K39" t="s">
         <v>7</v>
       </c>
@@ -2881,6 +3128,9 @@
       <c r="I41" t="s">
         <v>8</v>
       </c>
+      <c r="J41" t="s">
+        <v>414</v>
+      </c>
       <c r="K41" t="s">
         <v>8</v>
       </c>
@@ -3098,6 +3348,9 @@
       <c r="I55" t="s">
         <v>8</v>
       </c>
+      <c r="J55" t="s">
+        <v>403</v>
+      </c>
       <c r="K55" t="s">
         <v>8</v>
       </c>
@@ -3134,7 +3387,7 @@
         <v>8</v>
       </c>
       <c r="J56" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="K56" t="s">
         <v>7</v>
@@ -3302,6 +3555,9 @@
       <c r="I61" t="s">
         <v>7</v>
       </c>
+      <c r="J61" t="s">
+        <v>6</v>
+      </c>
       <c r="K61" t="s">
         <v>8</v>
       </c>
@@ -3351,6 +3607,9 @@
       <c r="I63" t="s">
         <v>8</v>
       </c>
+      <c r="J63" t="s">
+        <v>408</v>
+      </c>
       <c r="K63" t="s">
         <v>8</v>
       </c>
@@ -3386,6 +3645,9 @@
       <c r="I64" t="s">
         <v>8</v>
       </c>
+      <c r="J64" t="s">
+        <v>414</v>
+      </c>
       <c r="K64" t="s">
         <v>8</v>
       </c>
@@ -3459,6 +3721,9 @@
       <c r="I66" t="s">
         <v>8</v>
       </c>
+      <c r="J66" t="s">
+        <v>414</v>
+      </c>
       <c r="K66" t="s">
         <v>8</v>
       </c>
@@ -3489,7 +3754,7 @@
         <v>107</v>
       </c>
       <c r="H67" t="s">
-        <v>6</v>
+        <v>418</v>
       </c>
       <c r="I67" t="s">
         <v>8</v>
@@ -3532,6 +3797,9 @@
       <c r="I68" t="s">
         <v>8</v>
       </c>
+      <c r="J68" t="s">
+        <v>6</v>
+      </c>
       <c r="K68" t="s">
         <v>8</v>
       </c>
@@ -3567,6 +3835,9 @@
       <c r="I69" t="s">
         <v>8</v>
       </c>
+      <c r="J69" t="s">
+        <v>414</v>
+      </c>
       <c r="K69" t="s">
         <v>8</v>
       </c>
@@ -3602,6 +3873,9 @@
       <c r="I70" t="s">
         <v>8</v>
       </c>
+      <c r="J70" t="s">
+        <v>409</v>
+      </c>
       <c r="K70" t="s">
         <v>8</v>
       </c>
@@ -3637,6 +3911,9 @@
       <c r="I71" t="s">
         <v>8</v>
       </c>
+      <c r="J71" t="s">
+        <v>414</v>
+      </c>
       <c r="K71" t="s">
         <v>8</v>
       </c>
@@ -3667,10 +3944,13 @@
         <v>140</v>
       </c>
       <c r="H72" t="s">
-        <v>6</v>
+        <v>422</v>
       </c>
       <c r="I72" t="s">
         <v>8</v>
+      </c>
+      <c r="J72" t="s">
+        <v>401</v>
       </c>
       <c r="K72" t="s">
         <v>8</v>
@@ -3707,6 +3987,9 @@
       <c r="I73" t="s">
         <v>8</v>
       </c>
+      <c r="J73" t="s">
+        <v>414</v>
+      </c>
       <c r="K73" t="s">
         <v>8</v>
       </c>
@@ -3807,6 +4090,9 @@
       </c>
       <c r="I77" t="s">
         <v>8</v>
+      </c>
+      <c r="J77" t="s">
+        <v>415</v>
       </c>
       <c r="K77" t="s">
         <v>8</v>
@@ -3828,16 +4114,1269 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB83F06F-04C5-4A96-9494-0844DD53C55C}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>316</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" t="s">
+        <v>421</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>394</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>381</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G6" t="s">
+        <v>382</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>400</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" t="s">
+        <v>417</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>342</v>
+      </c>
+      <c r="G8" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" t="s">
+        <v>416</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>413</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>345</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>414</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>346</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>414</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>347</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>414</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>348</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>412</v>
+      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>349</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>414</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>350</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s">
+        <v>414</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>355</v>
+      </c>
+      <c r="G15" t="s">
+        <v>384</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>404</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>356</v>
+      </c>
+      <c r="G16" t="s">
+        <v>385</v>
+      </c>
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>405</v>
+      </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
+        <v>357</v>
+      </c>
+      <c r="G17" t="s">
+        <v>386</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>406</v>
+      </c>
+      <c r="K17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>358</v>
+      </c>
+      <c r="G18" t="s">
+        <v>387</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" t="s">
+        <v>414</v>
+      </c>
+      <c r="K18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G19" t="s">
+        <v>388</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" t="s">
+        <v>403</v>
+      </c>
+      <c r="K19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>360</v>
+      </c>
+      <c r="G20" t="s">
+        <v>389</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>407</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>361</v>
+      </c>
+      <c r="G21" t="s">
+        <v>390</v>
+      </c>
+      <c r="H21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" t="s">
+        <v>399</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>362</v>
+      </c>
+      <c r="G22" t="s">
+        <v>391</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" t="s">
+        <v>398</v>
+      </c>
+      <c r="K22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" t="s">
+        <v>296</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
+        <v>363</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>397</v>
+      </c>
+      <c r="K23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B24" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>366</v>
+      </c>
+      <c r="G24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" t="s">
+        <v>408</v>
+      </c>
+      <c r="K24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>367</v>
+      </c>
+      <c r="G25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" t="s">
+        <v>414</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B26" t="s">
+        <v>302</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" t="s">
+        <v>396</v>
+      </c>
+      <c r="K26" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="s">
+        <v>369</v>
+      </c>
+      <c r="G27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" t="s">
+        <v>414</v>
+      </c>
+      <c r="K27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
+        <v>370</v>
+      </c>
+      <c r="G28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" t="s">
+        <v>418</v>
+      </c>
+      <c r="I28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" t="s">
+        <v>395</v>
+      </c>
+      <c r="K28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" t="s">
+        <v>306</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" t="s">
+        <v>372</v>
+      </c>
+      <c r="G29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" t="s">
+        <v>414</v>
+      </c>
+      <c r="K29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s">
+        <v>373</v>
+      </c>
+      <c r="G30" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" t="s">
+        <v>409</v>
+      </c>
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" t="s">
+        <v>308</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>374</v>
+      </c>
+      <c r="G31" t="s">
+        <v>392</v>
+      </c>
+      <c r="H31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" t="s">
+        <v>414</v>
+      </c>
+      <c r="K31" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" t="s">
+        <v>310</v>
+      </c>
+      <c r="C32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" t="s">
+        <v>376</v>
+      </c>
+      <c r="G32" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" t="s">
+        <v>414</v>
+      </c>
+      <c r="K32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" t="s">
+        <v>314</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" t="s">
+        <v>380</v>
+      </c>
+      <c r="G33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" t="s">
+        <v>415</v>
+      </c>
+      <c r="K33" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D5B1226A9E10549B47981B7E7E96355" ma:contentTypeVersion="32" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cab3b7c7685ea4d4bbeaf1c8c91066f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e14cde77-1231-4b0b-9ea0-fa7eb724ceec" xmlns:ns4="240d64f4-20f9-4c29-a85e-1a72f408519f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88801d5d29aa1bd5b9f1e09969a9a219" ns3:_="" ns4:_="">
     <xsd:import namespace="e14cde77-1231-4b0b-9ea0-fa7eb724ceec"/>
@@ -4240,7 +5779,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CultureName xmlns="240d64f4-20f9-4c29-a85e-1a72f408519f" xsi:nil="true"/>
@@ -4293,15 +5832,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C9EABE-7591-49B8-87FB-3D0E76D19C7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA19133-91E8-403B-8F60-4C2E51B1CAEA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4320,7 +5860,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{764F2F38-2F61-4E94-9B55-6D9D2F07F0C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -4335,4 +5875,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C9EABE-7591-49B8-87FB-3D0E76D19C7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>